--- a/project task sheet/blog module.xlsx
+++ b/project task sheet/blog module.xlsx
@@ -143,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,15 +161,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -197,10 +188,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
